--- a/lab_plants.xlsx
+++ b/lab_plants.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>type</t>
   </si>
@@ -61,6 +61,15 @@
     <t>Location</t>
   </si>
   <si>
+    <t>begin repeat</t>
+  </si>
+  <si>
+    <t>photo_repeat</t>
+  </si>
+  <si>
+    <t>Pictures</t>
+  </si>
+  <si>
     <t>image</t>
   </si>
   <si>
@@ -70,6 +79,9 @@
     <t>Picture</t>
   </si>
   <si>
+    <t>end repeat</t>
+  </si>
+  <si>
     <t>integer</t>
   </si>
   <si>
@@ -85,9 +97,6 @@
     <t># de frascos</t>
   </si>
   <si>
-    <t>begin repeat</t>
-  </si>
-  <si>
     <t>jar_repeat</t>
   </si>
   <si>
@@ -95,9 +104,6 @@
   </si>
   <si>
     <t>jar_content</t>
-  </si>
-  <si>
-    <t>end repeat</t>
   </si>
   <si>
     <t>note</t>
@@ -238,10 +244,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -334,51 +340,67 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="0" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>28</v>
+      <c r="B19" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -410,7 +432,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -448,35 +470,35 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>1</v>
